--- a/CupiColegios/docs/Documento seguimiento tiempos y tareas.xlsx
+++ b/CupiColegios/docs/Documento seguimiento tiempos y tareas.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>N14 - CupiColegios</t>
   </si>
@@ -318,6 +318,15 @@
   </si>
   <si>
     <t>Posibles Mejoras (próximos proyectos)</t>
+  </si>
+  <si>
+    <t>Logramos concretar los aspectos iniciales de la construcción del proyecto de una manera mas pronta dada la experiencia pasada con el ejercicio anterior. Por otra parte, las librerías que se necesitaban no requirieron de mucha investigación. Por ultimo, las estructuras trabajadas facilitaron las búsquedas de una manera mas optima.</t>
+  </si>
+  <si>
+    <t>Como en el ejercicio anterior, a pesar de que le pudimos dar un mejor manejo al tiempo para este nivel, sigue siendo complicado de manejar para alcanzar a cuadrar todas las tareas que se deben ejecutar. Por otra parte, la construcción de los dato de algunas tablas, como la de los certificados, fue dificil debido a las inconsistencias de los datos que presentaban.</t>
+  </si>
+  <si>
+    <t>Aprovechar mejor el tiempo para concretar los aspectos iniciales de la implementación y a su vez agilizar el proceso de construcción de la interfaz y del mundo.</t>
   </si>
   <si>
     <t>N13 - &lt;Título Ejercicio&gt;</t>
@@ -376,27 +385,32 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="16"/>
@@ -468,7 +482,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -480,41 +494,318 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="9"/>
       </right>
       <top style="thin">
         <color indexed="9"/>
       </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
-      </left>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
-      </top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -522,17 +813,144 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="8"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +974,107 @@
         <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="9"/>
       </right>
       <top style="medium">
@@ -583,7 +1087,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="9"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -600,505 +1104,103 @@
       <left style="medium">
         <color indexed="8"/>
       </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
       <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
@@ -1127,284 +1229,293 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="8" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="13" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="13" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="12" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="10" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="13" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="13" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="13" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="11" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="13" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="7" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="12" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="12" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="9" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="12" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="15" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="12" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="12" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="12" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="10" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="11" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1471,528 +1582,548 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" t="s" s="7">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="12"/>
+      <c r="C2" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" t="s" s="12">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="s" s="13">
+      <c r="A3" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="13">
+      <c r="B3" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="14">
+      <c r="C3" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" t="s" s="17">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" t="s" s="18">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" t="s" s="21">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" t="s" s="22">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="22">
+      <c r="D4" t="s" s="23">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="23">
+      <c r="E4" t="s" s="24">
         <v>9</v>
       </c>
-      <c r="F4" t="s" s="24">
+      <c r="F4" t="s" s="25">
         <v>10</v>
       </c>
-      <c r="G4" t="s" s="21">
+      <c r="G4" t="s" s="22">
         <v>7</v>
       </c>
-      <c r="H4" t="s" s="22">
+      <c r="H4" t="s" s="23">
         <v>8</v>
       </c>
-      <c r="I4" t="s" s="22">
+      <c r="I4" t="s" s="23">
         <v>9</v>
       </c>
-      <c r="J4" t="s" s="23">
+      <c r="J4" t="s" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="25">
+      <c r="A5" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="B5" t="s" s="26">
+      <c r="B5" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="28">
         <v>6</v>
       </c>
-      <c r="D5" s="28">
-        <v>2</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="27">
+      <c r="D5" s="29">
+        <v>2</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="28">
         <v>6</v>
       </c>
-      <c r="H5" s="28">
-        <v>2</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
+      <c r="H5" s="29">
+        <v>2</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="30">
+      <c r="A6" t="s" s="31">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="26">
+      <c r="B6" t="s" s="27">
         <v>14</v>
       </c>
-      <c r="C6" s="27">
-        <v>2</v>
-      </c>
-      <c r="D6" s="28">
-        <v>2</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27">
+      <c r="C6" s="28">
+        <v>2</v>
+      </c>
+      <c r="D6" s="29">
+        <v>2</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="28">
         <v>3</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="29">
         <v>3</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="30">
+      <c r="A7" t="s" s="31">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="31">
+      <c r="B7" t="s" s="32">
         <v>16</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="28">
         <v>3</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <v>1</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="27">
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="28">
         <v>4</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="29">
         <v>3</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s" s="30">
+      <c r="A8" t="s" s="31">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="26">
+      <c r="B8" t="s" s="27">
         <v>18</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="28">
         <v>5</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29">
         <v>6</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27">
+      <c r="F8" s="30"/>
+      <c r="G8" s="28">
         <v>5</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28">
+      <c r="H8" s="29"/>
+      <c r="I8" s="29">
         <v>0.5</v>
       </c>
-      <c r="J8" s="29"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" t="s" s="30">
+      <c r="A9" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="26">
+      <c r="B9" t="s" s="27">
         <v>20</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="28">
         <v>5</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="29">
         <v>4</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27">
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28">
         <v>8</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="29">
         <v>1</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="30">
+      <c r="A10" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="B10" t="s" s="26">
+      <c r="B10" t="s" s="27">
         <v>22</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="28">
         <v>1</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <v>1</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="29">
         <v>0.5</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27">
+      <c r="F10" s="30"/>
+      <c r="G10" s="28">
         <v>1.5</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="29">
         <v>1</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="29">
         <v>0.5</v>
       </c>
-      <c r="J10" s="29"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="30">
+      <c r="A11" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="B11" t="s" s="26">
+      <c r="B11" t="s" s="27">
         <v>24</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="28">
         <v>1.5</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <v>1</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <v>0.5</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27">
+      <c r="F11" s="30"/>
+      <c r="G11" s="28">
         <v>1</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="29">
         <v>1</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="29">
         <v>0.5</v>
       </c>
-      <c r="J11" s="29"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" t="s" s="30">
+      <c r="A12" t="s" s="31">
         <v>25</v>
       </c>
-      <c r="B12" t="s" s="26">
+      <c r="B12" t="s" s="27">
         <v>26</v>
       </c>
-      <c r="C12" s="27">
-        <v>2</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28">
+      <c r="C12" s="28">
+        <v>2</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
         <v>1.5</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="27">
-        <v>2</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28">
+      <c r="F12" s="30"/>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29">
         <v>0.5</v>
       </c>
-      <c r="J12" s="29"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" t="s" s="30">
+      <c r="A13" t="s" s="31">
         <v>27</v>
       </c>
-      <c r="B13" t="s" s="31">
+      <c r="B13" t="s" s="32">
         <v>28</v>
       </c>
-      <c r="C13" s="27">
-        <v>2</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="27">
-        <v>2</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
+      <c r="C13" s="28">
+        <v>2</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
+      <c r="G13" s="28">
+        <v>2</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="30">
+      <c r="A14" t="s" s="31">
         <v>29</v>
       </c>
-      <c r="B14" t="s" s="26">
+      <c r="B14" t="s" s="27">
         <v>30</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="28">
         <v>5</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28">
-        <v>2</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="27">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="28">
         <v>5</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28">
-        <v>2</v>
-      </c>
-      <c r="J14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29">
+        <v>2</v>
+      </c>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="30">
+      <c r="A15" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B15" t="s" s="31">
+      <c r="B15" t="s" s="32">
         <v>32</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="28">
         <v>5</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28">
-        <v>2</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="27">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="28">
         <v>5</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28">
-        <v>2</v>
-      </c>
-      <c r="J15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29">
+        <v>2</v>
+      </c>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="30">
+      <c r="A16" t="s" s="31">
         <v>33</v>
       </c>
-      <c r="B16" t="s" s="26">
+      <c r="B16" t="s" s="27">
         <v>34</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="28">
         <v>1</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="27">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30">
+        <v>3</v>
+      </c>
+      <c r="G16" s="28">
         <v>1</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
+      <c r="H16" s="29">
+        <v>2</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" t="s" s="30">
+      <c r="A17" t="s" s="31">
         <v>35</v>
       </c>
-      <c r="B17" t="s" s="31">
+      <c r="B17" t="s" s="32">
         <v>36</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="28">
         <v>1</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29">
         <v>1</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="27">
+      <c r="F17" s="30"/>
+      <c r="G17" s="28">
         <v>1</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28">
-        <v>2</v>
-      </c>
-      <c r="J17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29">
+        <v>2</v>
+      </c>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" t="s" s="30">
+      <c r="A18" t="s" s="31">
         <v>37</v>
       </c>
-      <c r="B18" t="s" s="31">
+      <c r="B18" t="s" s="32">
         <v>38</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="28">
         <v>1</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="27">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30">
+        <v>3</v>
+      </c>
+      <c r="G18" s="28">
         <v>1</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
+      <c r="H18" s="29">
+        <v>2</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="30">
+      <c r="A19" t="s" s="31">
         <v>39</v>
       </c>
-      <c r="B19" t="s" s="26">
+      <c r="B19" t="s" s="27">
         <v>40</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="28">
         <v>10</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
         <v>1</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="27">
+      <c r="F19" s="30"/>
+      <c r="G19" s="28">
         <v>8</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28">
+      <c r="H19" s="29"/>
+      <c r="I19" s="29">
         <v>9</v>
       </c>
-      <c r="J19" s="29"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="30">
+      <c r="A20" t="s" s="31">
         <v>41</v>
       </c>
-      <c r="B20" t="s" s="26">
+      <c r="B20" t="s" s="27">
         <v>42</v>
       </c>
-      <c r="C20" s="27">
-        <v>2</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28">
+      <c r="C20" s="28">
+        <v>2</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29">
         <v>1</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28">
+      <c r="F20" s="30"/>
+      <c r="G20" s="28">
+        <v>2</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29">
         <v>1</v>
       </c>
-      <c r="J20" s="29"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="30">
+      <c r="A21" t="s" s="31">
         <v>43</v>
       </c>
-      <c r="B21" t="s" s="26">
+      <c r="B21" t="s" s="27">
         <v>44</v>
       </c>
-      <c r="C21" s="27">
-        <v>2</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="27">
-        <v>2</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
+      <c r="C21" s="28">
+        <v>2</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30">
+        <v>3</v>
+      </c>
+      <c r="G21" s="28">
+        <v>2</v>
+      </c>
+      <c r="H21" s="29">
+        <v>3</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="30">
+      <c r="A22" t="s" s="31">
         <v>45</v>
       </c>
-      <c r="B22" t="s" s="26">
+      <c r="B22" t="s" s="27">
         <v>46</v>
       </c>
-      <c r="C22" s="27">
-        <v>2</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="27">
-        <v>2</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
+      <c r="C22" s="28">
+        <v>2</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30">
+        <v>3</v>
+      </c>
+      <c r="G22" s="28">
+        <v>2</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" t="s" s="30">
+      <c r="A23" t="s" s="31">
         <v>47</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" t="s" s="30">
+      <c r="A24" t="s" s="31">
         <v>48</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" t="s" s="34">
         <v>49</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="35"/>
       <c r="D25" s="36"/>
       <c r="E25" s="36"/>
@@ -2021,7 +2152,7 @@
       </c>
       <c r="F26" s="41">
         <f>SUM(F5:F25)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G26" s="40">
         <f>SUM(G5:G25)</f>
@@ -2029,11 +2160,11 @@
       </c>
       <c r="H26" s="41">
         <f>SUM(H5:H25)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I26" s="41">
         <f>SUM(I5:I25)</f>
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="J26" s="41">
         <f>SUM(J5:J25)</f>
@@ -2051,7 +2182,7 @@
       </c>
       <c r="D27" s="44">
         <f>D26+E26+F26</f>
-        <v>26.5</v>
+        <v>40.5</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -2061,7 +2192,7 @@
       </c>
       <c r="H27" s="44">
         <f>H26+I26+J26</f>
-        <v>29</v>
+        <v>39.5</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="46"/>
@@ -2105,7 +2236,7 @@
       </c>
       <c r="D30" s="65">
         <f>D27+H27</f>
-        <v>55.5</v>
+        <v>80</v>
       </c>
       <c r="E30" s="66"/>
       <c r="F30" s="59"/>
@@ -2158,7 +2289,7 @@
       <c r="J33" s="81"/>
     </row>
     <row r="34" ht="60" customHeight="1">
-      <c r="A34" s="76"/>
+      <c r="A34" s="82"/>
       <c r="B34" t="s" s="77">
         <v>56</v>
       </c>
@@ -2173,28 +2304,28 @@
     </row>
     <row r="35" ht="60" customHeight="1">
       <c r="A35" s="42"/>
-      <c r="B35" t="s" s="82">
+      <c r="B35" t="s" s="83">
         <v>57</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="85"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="86"/>
       <c r="J35" s="81"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="47"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
       <c r="J36" s="62"/>
     </row>
     <row r="37" ht="21.75" customHeight="1">
@@ -2219,7 +2350,9 @@
       <c r="B38" t="s" s="77">
         <v>55</v>
       </c>
-      <c r="C38" s="78"/>
+      <c r="C38" t="s" s="89">
+        <v>58</v>
+      </c>
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
@@ -2229,11 +2362,13 @@
       <c r="J38" s="81"/>
     </row>
     <row r="39" ht="60" customHeight="1">
-      <c r="A39" s="76"/>
+      <c r="A39" s="82"/>
       <c r="B39" t="s" s="77">
         <v>56</v>
       </c>
-      <c r="C39" s="78"/>
+      <c r="C39" t="s" s="89">
+        <v>59</v>
+      </c>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
@@ -2244,16 +2379,18 @@
     </row>
     <row r="40" ht="60" customHeight="1">
       <c r="A40" s="42"/>
-      <c r="B40" t="s" s="82">
+      <c r="B40" t="s" s="83">
         <v>57</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="85"/>
+      <c r="C40" t="s" s="90">
+        <v>60</v>
+      </c>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="86"/>
       <c r="J40" s="81"/>
     </row>
   </sheetData>
@@ -2295,20 +2432,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="38.75" style="88" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="88" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="88" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="88" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="88" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="88" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="88" customWidth="1"/>
-    <col min="9" max="256" width="10.125" style="88" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="91" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="91" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="91" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="91" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="91" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="91" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="91" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="91" customWidth="1"/>
+    <col min="9" max="256" width="10.125" style="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -2316,397 +2453,397 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" t="s" s="7">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" t="s" s="11">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="C2" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" t="s" s="12">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="s" s="13">
+      <c r="A3" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="13">
+      <c r="B3" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="14">
-        <v>59</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" t="s" s="17">
-        <v>60</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="C3" t="s" s="15">
+        <v>62</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" t="s" s="18">
+        <v>63</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" t="s" s="21">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" t="s" s="22">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="22">
+      <c r="D4" t="s" s="23">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="23">
+      <c r="E4" t="s" s="24">
         <v>9</v>
       </c>
-      <c r="F4" t="s" s="21">
+      <c r="F4" t="s" s="22">
         <v>7</v>
       </c>
-      <c r="G4" t="s" s="22">
+      <c r="G4" t="s" s="23">
         <v>8</v>
       </c>
-      <c r="H4" t="s" s="23">
+      <c r="H4" t="s" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s" s="25">
+      <c r="A5" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="B5" t="s" s="89">
-        <v>61</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" t="s" s="92">
+        <v>64</v>
+      </c>
+      <c r="C5" s="28">
         <v>1</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <v>1.5</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="27">
+      <c r="E5" s="30"/>
+      <c r="F5" s="28">
         <v>1</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="29">
         <v>1.5</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" t="s" s="30">
+      <c r="A6" t="s" s="31">
         <v>13</v>
       </c>
-      <c r="B6" t="s" s="26">
-        <v>62</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" t="s" s="27">
+        <v>65</v>
+      </c>
+      <c r="C6" s="28">
         <v>1</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="29">
         <v>1.5</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="27">
+      <c r="E6" s="30"/>
+      <c r="F6" s="28">
         <v>1</v>
       </c>
-      <c r="G6" s="28">
-        <v>2</v>
-      </c>
-      <c r="H6" s="29"/>
+      <c r="G6" s="29">
+        <v>2</v>
+      </c>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" t="s" s="30">
+      <c r="A7" t="s" s="31">
         <v>15</v>
       </c>
-      <c r="B7" t="s" s="31">
-        <v>63</v>
-      </c>
-      <c r="C7" s="27">
-        <v>2</v>
-      </c>
-      <c r="D7" s="28">
-        <v>2</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="B7" t="s" s="32">
+        <v>66</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="27">
-        <v>2</v>
-      </c>
-      <c r="G7" s="28">
-        <v>2</v>
-      </c>
-      <c r="H7" s="29">
+      <c r="F7" s="28">
+        <v>2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>2</v>
+      </c>
+      <c r="H7" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" t="s" s="30">
+      <c r="A8" t="s" s="31">
         <v>17</v>
       </c>
-      <c r="B8" t="s" s="26">
-        <v>64</v>
-      </c>
-      <c r="C8" s="27">
-        <v>2</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="B8" t="s" s="27">
+        <v>67</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29">
         <v>1.5</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="31.5" customHeight="1">
-      <c r="A9" t="s" s="30">
+      <c r="A9" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="B9" t="s" s="26">
-        <v>65</v>
-      </c>
-      <c r="C9" s="27">
+      <c r="B9" t="s" s="27">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28">
         <v>1</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="29">
         <v>1.5</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="30">
         <v>1.5</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="28">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="29">
         <v>1</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" t="s" s="30">
+      <c r="A10" t="s" s="31">
         <v>21</v>
       </c>
-      <c r="B10" t="s" s="26">
-        <v>66</v>
-      </c>
-      <c r="C10" s="27">
-        <v>2</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29">
+      <c r="B10" t="s" s="27">
+        <v>69</v>
+      </c>
+      <c r="C10" s="28">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30">
         <v>1.5</v>
       </c>
-      <c r="F10" s="27">
-        <v>2</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29">
+      <c r="F10" s="28">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" t="s" s="30">
+      <c r="A11" t="s" s="31">
         <v>23</v>
       </c>
-      <c r="B11" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="B11" t="s" s="27">
+        <v>70</v>
+      </c>
+      <c r="C11" s="28">
         <v>3</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30">
         <v>4</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="28">
         <v>3</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29">
+      <c r="G11" s="29"/>
+      <c r="H11" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="31.5" customHeight="1">
-      <c r="A12" t="s" s="30">
+      <c r="A12" t="s" s="31">
         <v>25</v>
       </c>
-      <c r="B12" t="s" s="26">
-        <v>68</v>
-      </c>
-      <c r="C12" s="27">
+      <c r="B12" t="s" s="27">
+        <v>71</v>
+      </c>
+      <c r="C12" s="28">
         <v>1</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29">
+      <c r="D12" s="29"/>
+      <c r="E12" s="30">
         <v>1.5</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="28">
         <v>1</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29">
+      <c r="G12" s="29"/>
+      <c r="H12" s="30">
         <v>1.5</v>
       </c>
     </row>
     <row r="13" ht="31.5" customHeight="1">
-      <c r="A13" t="s" s="30">
+      <c r="A13" t="s" s="31">
         <v>27</v>
       </c>
-      <c r="B13" t="s" s="26">
-        <v>69</v>
-      </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="B13" t="s" s="27">
+        <v>72</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" t="s" s="30">
+      <c r="A14" t="s" s="31">
         <v>29</v>
       </c>
-      <c r="B14" t="s" s="26">
-        <v>70</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="B14" t="s" s="27">
+        <v>73</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="30">
+      <c r="A15" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" t="s" s="30">
+      <c r="A16" t="s" s="31">
         <v>33</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" t="s" s="30">
+      <c r="A17" t="s" s="31">
         <v>35</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" t="s" s="30">
+      <c r="A18" t="s" s="31">
         <v>37</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" t="s" s="30">
+      <c r="A19" t="s" s="31">
         <v>39</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" t="s" s="30">
+      <c r="A20" t="s" s="31">
         <v>41</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s" s="30">
+      <c r="A21" t="s" s="31">
         <v>43</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s" s="30">
+      <c r="A22" t="s" s="31">
         <v>45</v>
       </c>
-      <c r="B22" s="90"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" t="s" s="30">
+      <c r="A23" t="s" s="31">
         <v>47</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" t="s" s="30">
+      <c r="A24" t="s" s="31">
         <v>48</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" t="s" s="34">
         <v>49</v>
       </c>
-      <c r="B25" s="91"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="37"/>
@@ -2739,7 +2876,7 @@
         <f>SUM(G5:G25)</f>
         <v>6.5</v>
       </c>
-      <c r="H26" s="92">
+      <c r="H26" s="95">
         <f>SUM(H5:H25)</f>
         <v>10.5</v>
       </c>
@@ -2827,7 +2964,7 @@
       </c>
       <c r="C32" t="s" s="73">
         <f>C3</f>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
@@ -2838,7 +2975,7 @@
     <row r="33" ht="60" customHeight="1">
       <c r="A33" s="76"/>
       <c r="B33" t="s" s="77">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="79"/>
@@ -2848,9 +2985,9 @@
       <c r="H33" s="80"/>
     </row>
     <row r="34" ht="60" customHeight="1">
-      <c r="A34" s="76"/>
+      <c r="A34" s="82"/>
       <c r="B34" t="s" s="77">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="79"/>
@@ -2861,25 +2998,25 @@
     </row>
     <row r="35" ht="60" customHeight="1">
       <c r="A35" s="42"/>
-      <c r="B35" t="s" s="82">
-        <v>73</v>
-      </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
+      <c r="B35" t="s" s="83">
+        <v>76</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="47"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
     </row>
     <row r="37" ht="21.75" customHeight="1">
       <c r="A37" s="42"/>
@@ -2888,7 +3025,7 @@
       </c>
       <c r="C37" t="s" s="73">
         <f>F3</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -2899,7 +3036,7 @@
     <row r="38" ht="60" customHeight="1">
       <c r="A38" s="76"/>
       <c r="B38" t="s" s="77">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="79"/>
@@ -2909,9 +3046,9 @@
       <c r="H38" s="80"/>
     </row>
     <row r="39" ht="60" customHeight="1">
-      <c r="A39" s="76"/>
+      <c r="A39" s="82"/>
       <c r="B39" t="s" s="77">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="79"/>
@@ -2922,15 +3059,15 @@
     </row>
     <row r="40" ht="60" customHeight="1">
       <c r="A40" s="42"/>
-      <c r="B40" t="s" s="82">
-        <v>73</v>
-      </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="85"/>
+      <c r="B40" t="s" s="83">
+        <v>76</v>
+      </c>
+      <c r="C40" s="84"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/CupiColegios/docs/Documento seguimiento tiempos y tareas.xlsx
+++ b/CupiColegios/docs/Documento seguimiento tiempos y tareas.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>N14 - CupiColegios</t>
   </si>
@@ -290,6 +290,9 @@
     <t>T21</t>
   </si>
   <si>
+    <t>Clase Lector</t>
+  </si>
+  <si>
     <t>T22</t>
   </si>
   <si>
@@ -311,15 +314,34 @@
     <t>Reflexión Final</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Trebuchet MS Bold"/>
+      </rPr>
+      <t>Sebastián Flórez</t>
+    </r>
+  </si>
+  <si>
     <t>Aspectos favorables en la realización del proyecto</t>
   </si>
   <si>
+    <t>Se noto una mejor eficiencia con el manejo del proyecto, ya que la experiencia adquirida del ejercicio anterior nos permitió entender cuales eran las fortalezas de cada uno. De nuevo, git fue una herramienta muy util ya que nos permitió un manejo adecuado de nuestros cambios.</t>
+  </si>
+  <si>
     <t>Aspectos difíciles en la realización del proyecto</t>
   </si>
   <si>
+    <t>Las tablas proporcionadas en general, eran congruente entre si. Sin embargo, se detectaron errores como municipios existentes en colegios pero no en la tbala de municipios, al igual que los certificados que no tenian relación alguna con las otras tablas. Estos no incluían codigo, o los nombres no se asemejaban a los dados en las otras tablas.</t>
+  </si>
+  <si>
     <t>Posibles Mejoras (próximos proyectos)</t>
   </si>
   <si>
+    <t>El tiempo como siempre representa un factor importante en la realización del proyecto. Para este, se destino mayor tiempo y a pesar de consumir mayor cantidad se sintió mejor organizado y elaborado. Aun así falta mejorar aspectos funcionales.</t>
+  </si>
+  <si>
     <t>Logramos concretar los aspectos iniciales de la construcción del proyecto de una manera mas pronta dada la experiencia pasada con el ejercicio anterior. Por otra parte, las librerías que se necesitaban no requirieron de mucha investigación. Por ultimo, las estructuras trabajadas facilitaron las búsquedas de una manera mas optima.</t>
   </si>
   <si>
@@ -375,6 +397,16 @@
   </si>
   <si>
     <t>Posibles Mejoras (próximos ejercicios)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Trebuchet MS Bold"/>
+      </rPr>
+      <t>Pedro Gómez</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -385,7 +417,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -408,6 +440,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="8"/>
+      <name val="Trebuchet MS Bold"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -415,53 +452,47 @@
     <font>
       <sz val="16"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="16"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS Bold"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="14"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS Bold"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS Bold"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS Bold"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS Bold"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="10"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS Bold"/>
     </font>
     <font>
       <sz val="11"/>
@@ -471,7 +502,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1239,284 +1270,284 @@
     <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="8" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="9" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="9" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="9" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="9" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="9" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="8" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="9" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="13" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="14" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="11" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="11" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="11" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="11" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="11" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="13" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="14" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="10" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="11" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="13" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="11" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="13" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="11" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="11" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="14" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="12" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="14" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="12" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="12" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="13" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="14" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="11" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="11" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="13" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="14" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="12" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="16" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="16" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="12" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="16" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="16" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="16" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="13" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="11" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="12" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1735,7 +1766,7 @@
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="28">
@@ -1864,7 +1895,7 @@
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="28">
         <v>2</v>
@@ -1873,7 +1904,9 @@
         <v>0</v>
       </c>
       <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s" s="31">
@@ -1945,7 +1978,9 @@
         <v>2</v>
       </c>
       <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s" s="31">
@@ -1993,7 +2028,9 @@
         <v>2</v>
       </c>
       <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="s" s="31">
@@ -2033,7 +2070,9 @@
       <c r="E20" s="29">
         <v>1</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="30">
+        <v>2</v>
+      </c>
       <c r="G20" s="28">
         <v>2</v>
       </c>
@@ -2041,7 +2080,9 @@
       <c r="I20" s="29">
         <v>1</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="s" s="31">
@@ -2065,7 +2106,9 @@
         <v>3</v>
       </c>
       <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="s" s="31">
@@ -2089,25 +2132,33 @@
       <c r="I22" s="29">
         <v>3.5</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s" s="31">
         <v>47</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" t="s" s="32">
+        <v>48</v>
+      </c>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
+      <c r="F23" s="30">
+        <v>6</v>
+      </c>
       <c r="G23" s="28"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="30">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s" s="31">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="28"/>
@@ -2121,7 +2172,7 @@
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" t="s" s="34">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="35"/>
@@ -2136,7 +2187,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" t="s" s="39">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="40">
         <f>SUM(C5:C25)</f>
@@ -2148,11 +2199,11 @@
       </c>
       <c r="E26" s="41">
         <f>SUM(E5:E25)</f>
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="F26" s="41">
         <f>SUM(F5:F25)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G26" s="40">
         <f>SUM(G5:G25)</f>
@@ -2168,13 +2219,13 @@
       </c>
       <c r="J26" s="41">
         <f>SUM(J5:J25)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" t="s" s="43">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="40">
         <f>C26</f>
@@ -2182,7 +2233,7 @@
       </c>
       <c r="D27" s="44">
         <f>D26+E26+F26</f>
-        <v>40.5</v>
+        <v>52.5</v>
       </c>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -2192,7 +2243,7 @@
       </c>
       <c r="H27" s="44">
         <f>H26+I26+J26</f>
-        <v>39.5</v>
+        <v>57.5</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="46"/>
@@ -2212,13 +2263,13 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="54"/>
       <c r="B29" t="s" s="55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s" s="56">
         <v>7</v>
       </c>
       <c r="D29" t="s" s="57">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="58"/>
       <c r="F29" s="59"/>
@@ -2236,7 +2287,7 @@
       </c>
       <c r="D30" s="65">
         <f>D27+H27</f>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E30" s="66"/>
       <c r="F30" s="59"/>
@@ -2260,11 +2311,11 @@
     <row r="32" ht="21.75" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" t="s" s="72">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s" s="73">
         <f>C3</f>
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
@@ -2277,9 +2328,11 @@
     <row r="33" ht="60" customHeight="1">
       <c r="A33" s="76"/>
       <c r="B33" t="s" s="77">
-        <v>55</v>
-      </c>
-      <c r="C33" s="78"/>
+        <v>57</v>
+      </c>
+      <c r="C33" t="s" s="78">
+        <v>58</v>
+      </c>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
@@ -2291,9 +2344,11 @@
     <row r="34" ht="60" customHeight="1">
       <c r="A34" s="82"/>
       <c r="B34" t="s" s="77">
-        <v>56</v>
-      </c>
-      <c r="C34" s="78"/>
+        <v>59</v>
+      </c>
+      <c r="C34" t="s" s="78">
+        <v>60</v>
+      </c>
       <c r="D34" s="79"/>
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
@@ -2305,9 +2360,11 @@
     <row r="35" ht="60" customHeight="1">
       <c r="A35" s="42"/>
       <c r="B35" t="s" s="83">
-        <v>57</v>
-      </c>
-      <c r="C35" s="84"/>
+        <v>61</v>
+      </c>
+      <c r="C35" t="s" s="84">
+        <v>62</v>
+      </c>
       <c r="D35" s="85"/>
       <c r="E35" s="85"/>
       <c r="F35" s="85"/>
@@ -2331,7 +2388,7 @@
     <row r="37" ht="21.75" customHeight="1">
       <c r="A37" s="42"/>
       <c r="B37" t="s" s="72">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s" s="73">
         <f>G3</f>
@@ -2348,10 +2405,10 @@
     <row r="38" ht="60" customHeight="1">
       <c r="A38" s="76"/>
       <c r="B38" t="s" s="77">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s" s="89">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C38" t="s" s="78">
+        <v>63</v>
       </c>
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
@@ -2364,10 +2421,10 @@
     <row r="39" ht="60" customHeight="1">
       <c r="A39" s="82"/>
       <c r="B39" t="s" s="77">
-        <v>56</v>
-      </c>
-      <c r="C39" t="s" s="89">
         <v>59</v>
+      </c>
+      <c r="C39" t="s" s="78">
+        <v>64</v>
       </c>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
@@ -2380,10 +2437,10 @@
     <row r="40" ht="60" customHeight="1">
       <c r="A40" s="42"/>
       <c r="B40" t="s" s="83">
-        <v>57</v>
-      </c>
-      <c r="C40" t="s" s="90">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C40" t="s" s="84">
+        <v>65</v>
       </c>
       <c r="D40" s="85"/>
       <c r="E40" s="85"/>
@@ -2432,20 +2489,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="91" customWidth="1"/>
-    <col min="2" max="2" width="38.75" style="91" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="91" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="91" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="91" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="91" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="91" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="91" customWidth="1"/>
-    <col min="9" max="256" width="10.125" style="91" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="89" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="89" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="89" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="89" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="89" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="89" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="89" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="89" customWidth="1"/>
+    <col min="9" max="256" width="10.125" style="89" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="46.5" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -2479,12 +2536,12 @@
         <v>4</v>
       </c>
       <c r="C3" t="s" s="15">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" t="s" s="18">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="17"/>
@@ -2515,8 +2572,8 @@
       <c r="A5" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="B5" t="s" s="92">
-        <v>64</v>
+      <c r="B5" t="s" s="90">
+        <v>69</v>
       </c>
       <c r="C5" s="28">
         <v>1</v>
@@ -2538,7 +2595,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s" s="27">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C6" s="28">
         <v>1</v>
@@ -2560,7 +2617,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s" s="32">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C7" s="28">
         <v>2</v>
@@ -2586,7 +2643,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s" s="27">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C8" s="28">
         <v>2</v>
@@ -2604,7 +2661,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s" s="27">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C9" s="28">
         <v>1</v>
@@ -2630,7 +2687,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s" s="27">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C10" s="28">
         <v>2</v>
@@ -2652,7 +2709,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s" s="27">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C11" s="28">
         <v>3</v>
@@ -2674,7 +2731,7 @@
         <v>25</v>
       </c>
       <c r="B12" t="s" s="27">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C12" s="28">
         <v>1</v>
@@ -2696,7 +2753,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="s" s="27">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -2710,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="B14" t="s" s="27">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="29"/>
@@ -2723,7 +2780,7 @@
       <c r="A15" t="s" s="31">
         <v>31</v>
       </c>
-      <c r="B15" s="93"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
@@ -2735,7 +2792,7 @@
       <c r="A16" t="s" s="31">
         <v>33</v>
       </c>
-      <c r="B16" s="93"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
@@ -2747,7 +2804,7 @@
       <c r="A17" t="s" s="31">
         <v>35</v>
       </c>
-      <c r="B17" s="93"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
@@ -2759,7 +2816,7 @@
       <c r="A18" t="s" s="31">
         <v>37</v>
       </c>
-      <c r="B18" s="93"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -2771,7 +2828,7 @@
       <c r="A19" t="s" s="31">
         <v>39</v>
       </c>
-      <c r="B19" s="93"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -2783,7 +2840,7 @@
       <c r="A20" t="s" s="31">
         <v>41</v>
       </c>
-      <c r="B20" s="93"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -2795,7 +2852,7 @@
       <c r="A21" t="s" s="31">
         <v>43</v>
       </c>
-      <c r="B21" s="93"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -2807,7 +2864,7 @@
       <c r="A22" t="s" s="31">
         <v>45</v>
       </c>
-      <c r="B22" s="93"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
@@ -2819,7 +2876,7 @@
       <c r="A23" t="s" s="31">
         <v>47</v>
       </c>
-      <c r="B23" s="93"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
@@ -2829,9 +2886,9 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s" s="31">
-        <v>48</v>
-      </c>
-      <c r="B24" s="93"/>
+        <v>49</v>
+      </c>
+      <c r="B24" s="91"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
@@ -2841,9 +2898,9 @@
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" t="s" s="34">
-        <v>49</v>
-      </c>
-      <c r="B25" s="94"/>
+        <v>50</v>
+      </c>
+      <c r="B25" s="92"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
       <c r="E25" s="37"/>
@@ -2854,7 +2911,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="38"/>
       <c r="B26" t="s" s="39">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="40">
         <f>SUM(C5:C25)</f>
@@ -2876,7 +2933,7 @@
         <f>SUM(G5:G25)</f>
         <v>6.5</v>
       </c>
-      <c r="H26" s="95">
+      <c r="H26" s="93">
         <f>SUM(H5:H25)</f>
         <v>10.5</v>
       </c>
@@ -2884,7 +2941,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" t="s" s="43">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="40">
         <f>C26</f>
@@ -2918,13 +2975,13 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="54"/>
       <c r="B29" t="s" s="55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s" s="56">
         <v>7</v>
       </c>
       <c r="D29" t="s" s="57">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="59"/>
       <c r="F29" s="60"/>
@@ -2960,11 +3017,11 @@
     <row r="32" ht="21.75" customHeight="1">
       <c r="A32" s="42"/>
       <c r="B32" t="s" s="72">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s" s="73">
         <f>C3</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
@@ -2975,9 +3032,9 @@
     <row r="33" ht="60" customHeight="1">
       <c r="A33" s="76"/>
       <c r="B33" t="s" s="77">
-        <v>74</v>
-      </c>
-      <c r="C33" s="78"/>
+        <v>79</v>
+      </c>
+      <c r="C33" s="94"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
@@ -2987,9 +3044,9 @@
     <row r="34" ht="60" customHeight="1">
       <c r="A34" s="82"/>
       <c r="B34" t="s" s="77">
-        <v>75</v>
-      </c>
-      <c r="C34" s="78"/>
+        <v>80</v>
+      </c>
+      <c r="C34" s="94"/>
       <c r="D34" s="79"/>
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
@@ -2999,9 +3056,9 @@
     <row r="35" ht="60" customHeight="1">
       <c r="A35" s="42"/>
       <c r="B35" t="s" s="83">
-        <v>76</v>
-      </c>
-      <c r="C35" s="84"/>
+        <v>81</v>
+      </c>
+      <c r="C35" s="95"/>
       <c r="D35" s="85"/>
       <c r="E35" s="85"/>
       <c r="F35" s="85"/>
@@ -3021,11 +3078,11 @@
     <row r="37" ht="21.75" customHeight="1">
       <c r="A37" s="42"/>
       <c r="B37" t="s" s="72">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s" s="73">
         <f>F3</f>
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
@@ -3036,9 +3093,9 @@
     <row r="38" ht="60" customHeight="1">
       <c r="A38" s="76"/>
       <c r="B38" t="s" s="77">
-        <v>74</v>
-      </c>
-      <c r="C38" s="78"/>
+        <v>79</v>
+      </c>
+      <c r="C38" s="94"/>
       <c r="D38" s="79"/>
       <c r="E38" s="79"/>
       <c r="F38" s="79"/>
@@ -3048,9 +3105,9 @@
     <row r="39" ht="60" customHeight="1">
       <c r="A39" s="82"/>
       <c r="B39" t="s" s="77">
-        <v>75</v>
-      </c>
-      <c r="C39" s="78"/>
+        <v>80</v>
+      </c>
+      <c r="C39" s="94"/>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
       <c r="F39" s="79"/>
@@ -3060,9 +3117,9 @@
     <row r="40" ht="60" customHeight="1">
       <c r="A40" s="42"/>
       <c r="B40" t="s" s="83">
-        <v>76</v>
-      </c>
-      <c r="C40" s="84"/>
+        <v>81</v>
+      </c>
+      <c r="C40" s="95"/>
       <c r="D40" s="85"/>
       <c r="E40" s="85"/>
       <c r="F40" s="85"/>
